--- a/Mifos Automation Excels/Loan Product/3082-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3082-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT-Loanproduct.xlsx
@@ -203,9 +203,6 @@
     <t>Fees Receivable</t>
   </si>
   <si>
-    <t>accrualperiodic</t>
-  </si>
-  <si>
     <t>interestreceivable</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>feesreceivable</t>
   </si>
   <si>
-    <t>OveerdueFees-%Interest</t>
-  </si>
-  <si>
     <t>3082-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT</t>
   </si>
   <si>
@@ -234,6 +228,12 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>OverdueFees-%Interest</t>
+  </si>
+  <si>
+    <t>overduecharges</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -332,7 +332,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -652,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -780,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -889,15 +888,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
@@ -905,7 +904,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -929,18 +928,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +952,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>61</v>
@@ -1032,7 +1031,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
